--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/57_Mardin_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/57_Mardin_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBAD63C6-17EC-4D0C-81F4-DD77454CFA39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18903B40-A0A9-4B62-AA11-07556120846F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="677" xr2:uid="{5F7C758F-4373-4077-B1BE-30FD1D88FB29}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="677" xr2:uid="{879FD2A1-1C3B-45AD-9DC1-21502F64A492}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -921,14 +921,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{41AA3925-AAA1-42E1-8D80-A3BC4A69A768}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{01A79A60-5F6A-433B-9B66-B4F128E5115E}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{D928F9EE-B363-42AA-8D8A-7F91D18F6A46}"/>
-    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{1DD3362D-1B5B-4F99-B4EF-9B063EE5E756}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{D0AFA75B-C4E2-4137-BD20-97F5B45D9A2D}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{C461D258-A282-45BF-93EF-DB1B05AB307F}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{246DFF93-2487-4D60-9B47-2A9FCCEE0E03}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{C06E04F4-38F0-4B16-8F03-3DC9DAE5C563}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{380BEE23-3D04-4C46-B38E-07EF2FCEE5E4}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{F78E3CB7-B480-4213-AA98-5EA46DAA2F48}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{E7A08751-B526-4E9F-B2C7-B8490F45124F}"/>
+    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{A8D33E80-B81A-4A30-A81E-FB70D3F55091}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{CBFB4DE1-E522-469A-BA50-C5079B0E729D}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{C4CE8F40-8FD2-43EC-BB58-A3ECAF3DAB02}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{D240959F-B98B-43F0-98EE-160A152ED9D2}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{66261215-830A-428F-BAF5-0132892FEF00}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1298,7 +1298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67984DF9-2D7E-4363-9601-45C31BD5EE3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D14EC00-CB9C-4577-A585-FEE2A6424E10}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2604,7 +2604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{775AEE5B-1982-40B1-A1E6-46F02C88767F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC0CD297-D1CA-4111-A29E-38D8A01797CF}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3869,7 +3869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34A26C7A-E670-4ADD-BDFE-37CA67019162}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77783C4C-0C3A-42C1-9553-DC40B13778CE}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5134,7 +5134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96CF752-106C-47E4-A1F2-EB2D23B12135}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A977F8A-56B6-4A6E-840E-D6DF870A4B5D}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6391,7 +6391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018D0450-B765-4F8B-B68C-467DDB20BB94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5305596-CF39-4DFA-BEA8-A1F5DBB515DE}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7696,7 +7696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5A09A4-1CE3-4BA5-90A5-E4E44EE40921}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C4DB30-E495-4179-BF49-E455039523C7}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9001,7 +9001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E6E21B-7C57-42B2-902B-67E5CD8CD0ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D49877-FDC0-41C5-9E2B-19EE1007AEA5}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10306,7 +10306,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33052E49-B497-4830-A0FD-B921AE0A6963}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{005DFD53-AE7F-4264-9CE9-C64E94B96550}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11611,7 +11611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10A7EAD1-0A56-40B2-8FC8-E764F916CF87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B9B720-91CD-4B10-8529-824B4FB75871}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12916,7 +12916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D1B6C7-F821-4924-9861-09C6985D8F81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67390378-3201-4675-9C7C-86BB3C62BADE}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14209,7 +14209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48992C21-8E3D-46AA-9AC0-1D04F51CBAC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A2CB428-14B2-47AF-BA16-D22BD677E8E1}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15498,7 +15498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47745480-A987-4054-BBFF-47DEBB986409}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4EDC6CA-FBF5-4377-BAAD-6DC6FD1F05D9}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
